--- a/Test protocol/Sprint_2/NL/System Test protocol_Braille DP2_Sprint 2_NL.xlsx
+++ b/Test protocol/Sprint_2/NL/System Test protocol_Braille DP2_Sprint 2_NL.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>CSS  Specification:</t>
+  </si>
+  <si>
+    <t>v1.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">*Step 4.1, set default-stylesheet:
@@ -480,6 +483,9 @@
 </t>
   </si>
   <si>
+    <t>v1.2</t>
+  </si>
+  <si>
     <t>Davy Kager</t>
   </si>
   <si>
@@ -492,16 +498,13 @@
     <t>Setting (unrealistically) low page width leads to words being hyphenated in odd places; regular page width is fine.</t>
   </si>
   <si>
-    <t>v1.1.0</t>
-  </si>
-  <si>
-    <t>https://github.com/snaekobbi/system/releases/tag/v1.1.0</t>
-  </si>
-  <si>
-    <t>v1.1</t>
-  </si>
-  <si>
-    <t>http://snaekobbi.github.io/requirements/v1.1/index.xhtml</t>
+    <t>To be merged</t>
+  </si>
+  <si>
+    <t>The only added whitespace is introduced by the default CSS, as it should be.</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/DE/4.4.55/test_preserve_whitespace.pef</t>
   </si>
 </sst>
 </file>
@@ -770,9 +773,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
@@ -1509,8 +1510,8 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="6" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,16 +1543,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -1559,16 +1560,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1641,10 +1642,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1712,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C20"/>
     </row>
@@ -1768,10 +1769,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1873,10 +1874,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1927,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C46" s="9"/>
     </row>
@@ -1936,7 +1937,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="9"/>
     </row>
@@ -1992,10 +1993,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2083,10 +2084,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C65" s="63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2105,20 +2106,26 @@
       <c r="B67" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="34"/>
+      <c r="C67" s="34" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="11"/>
+      <c r="B69" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -2173,10 +2180,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76" s="63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E76" s="67"/>
     </row>
@@ -2196,7 +2203,9 @@
       <c r="B78" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="34"/>
+      <c r="C78" s="34" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="79" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
@@ -2269,10 +2278,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2342,28 +2351,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C55" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C14" r:id="rId3"/>
-    <hyperlink ref="C15" r:id="rId4"/>
-    <hyperlink ref="C16" r:id="rId5"/>
-    <hyperlink ref="C17" r:id="rId6"/>
-    <hyperlink ref="C18" r:id="rId7"/>
-    <hyperlink ref="C29" r:id="rId8"/>
-    <hyperlink ref="C30" r:id="rId9"/>
-    <hyperlink ref="C31" r:id="rId10"/>
-    <hyperlink ref="C41" r:id="rId11"/>
-    <hyperlink ref="C42" r:id="rId12"/>
-    <hyperlink ref="C43" r:id="rId13"/>
-    <hyperlink ref="C44" r:id="rId14"/>
-    <hyperlink ref="C45" r:id="rId15"/>
-    <hyperlink ref="C66" r:id="rId16"/>
-    <hyperlink ref="C77" r:id="rId17"/>
-    <hyperlink ref="E5" r:id="rId18"/>
-    <hyperlink ref="E3" r:id="rId19"/>
-    <hyperlink ref="E4" r:id="rId20"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="C55" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId4"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="C16" r:id="rId7"/>
+    <hyperlink ref="C17" r:id="rId8"/>
+    <hyperlink ref="C18" r:id="rId9"/>
+    <hyperlink ref="C29" r:id="rId10"/>
+    <hyperlink ref="C30" r:id="rId11"/>
+    <hyperlink ref="C31" r:id="rId12"/>
+    <hyperlink ref="C41" r:id="rId13"/>
+    <hyperlink ref="C42" r:id="rId14"/>
+    <hyperlink ref="C43" r:id="rId15"/>
+    <hyperlink ref="C44" r:id="rId16"/>
+    <hyperlink ref="C45" r:id="rId17"/>
+    <hyperlink ref="C66" r:id="rId18"/>
+    <hyperlink ref="C77" r:id="rId19"/>
+    <hyperlink ref="E5" r:id="rId20"/>
+    <hyperlink ref="C78" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>